--- a/dist/checklists/core/xlsx/schemaorg/general/stx_seq_schemaorg_core.xlsx
+++ b/dist/checklists/core/xlsx/schemaorg/general/stx_seq_schemaorg_core.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="398">
   <si>
     <t>Study ID</t>
   </si>
@@ -399,12 +399,6 @@
   </si>
   <si>
     <t>e.g. Forest</t>
-  </si>
-  <si>
-    <t>The name (or acronym) representing the lead institution responsible for the study.</t>
-  </si>
-  <si>
-    <t>e.g. EI</t>
   </si>
   <si>
     <t>The life stage or age class of the organism when sampled.</t>
@@ -1770,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1793,22 +1787,21 @@
     <col min="17" max="17" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1866,47 +1859,44 @@
       <c r="S1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>4</v>
+      <c r="T1" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="AD1" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="AE1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -1989,7 +1979,7 @@
         <v>140</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>143</v>
@@ -2000,11 +1990,8 @@
       <c r="AE2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AF2" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2084,10 +2071,10 @@
         <v>139</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>144</v>
@@ -2098,11 +2085,8 @@
       <c r="AE3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>150</v>
-      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:31">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -2136,14 +2120,13 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="A4:AE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AF4">
+  <conditionalFormatting sqref="A1:AE4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2197,233 +2180,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="U1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="T2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="T3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2496,152 +2479,152 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2706,170 +2689,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="O2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="N3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2927,89 +2910,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3054,35 +3037,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3">
